--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedropablo/Downloads/Proyecto-Final-POO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F1DB37-7A4D-5C4B-BF37-1089D4029FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88E9432-63D0-054F-A9BF-DF03B0266620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{97532FB7-5E9C-4D46-B6D0-317D2D2D62BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Resource</t>
   </si>
@@ -45,6 +45,27 @@
   </si>
   <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>Matematica</t>
+  </si>
+  <si>
+    <t>Precalculo 1</t>
+  </si>
+  <si>
+    <t>Calculo 1</t>
+  </si>
+  <si>
+    <t>Ciencias de la vida</t>
+  </si>
+  <si>
+    <t>Ciencias</t>
+  </si>
+  <si>
+    <t>Lenguaje 1</t>
+  </si>
+  <si>
+    <t>Lenguaje</t>
   </si>
 </sst>
 </file>
@@ -80,8 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC4A98C-1D9E-A249-9401-4777125FE048}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,6 +439,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,30 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Resource</t>
+          <t>Question</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Subject</t>
+          <t>Answer</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Option1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Option2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Option3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Level</t>
         </is>
@@ -453,75 +468,2794 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Precalculo 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Matematica</t>
-        </is>
+          <t>¿Cuántos lados tiene un cuadrado?</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Calculo 1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Matematica</t>
-        </is>
+          <t>¿Cuántos lados tiene un triángulo?</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ciencias de la vida</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ciencias</t>
-        </is>
+          <t>¿Cuánto es 3+5?</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lenguaje 1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lenguaje</t>
-        </is>
+          <t>¿Qué número va después de 10?</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
       </c>
       <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>El origen de las especies</t>
+          <t>Primera letra vocal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ciencia</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>¿Qué color obtenemos al mezclar rojo y azul?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Morado</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Amarillo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rojo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>¿Qué color obtenemos al mezclar azul y amarillo?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rosado</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Rojo</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>¿Cuál es la segunda letra vocal?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Escribe la c mayúscula</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>¿Qué color obtenemos al mezclar rojo y amarillo?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Naranja</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Azul</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Morado</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>¿Cuánto es 4 + 6?</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sume 5 + 4</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>El resultado de 3 -1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sume 15 + 5</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>22</v>
+      </c>
+      <c r="E15" t="n">
+        <v>21</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>El resultado de 10 - 7</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sume 9+7</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cuarta letra del abecedario</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Escriba la letra g en mayúscula</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Parte del cuerpo nos sirve para escuchar</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Oido</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Dedos</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ojos</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Piernas</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Parte del cuerpo que nos ayuda a agarrar cosas</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Manos</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Pies</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Codos</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Espalda</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sume 23 + 3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>24</v>
+      </c>
+      <c r="D22" t="n">
+        <v>25</v>
+      </c>
+      <c r="E22" t="n">
+        <v>87</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Escriba la H en minúsculas </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Última letra del abecedario</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>¿Qué número va luego del 42?</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>43</v>
+      </c>
+      <c r="C25" t="n">
+        <v>44</v>
+      </c>
+      <c r="D25" t="n">
+        <v>45</v>
+      </c>
+      <c r="E25" t="n">
+        <v>46</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>¿Qué número va luego de 65?</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>66</v>
+      </c>
+      <c r="C26" t="n">
+        <v>67</v>
+      </c>
+      <c r="D26" t="n">
+        <v>68</v>
+      </c>
+      <c r="E26" t="n">
+        <v>69</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>El resultado de 30 - 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>El resultado de 13 - 3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>12</v>
+      </c>
+      <c r="E28" t="n">
+        <v>11</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sume 9 + 8</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>17</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14</v>
+      </c>
+      <c r="D29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>18</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tecera letra vocal</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>¿Qué tipo de animales nacen mediante el vientre de la madre y regularmente tienen pelo?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mamíferos</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ovíparos</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Anfibios</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>¿Qué categoría gramatical expresa acción?</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Verbo</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sustantivo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Adjetivo</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Articulo</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Calcule 300+274</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>574</v>
+      </c>
+      <c r="C33" t="n">
+        <v>576</v>
+      </c>
+      <c r="D33" t="n">
+        <v>575</v>
+      </c>
+      <c r="E33" t="n">
+        <v>577</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Calcule 12*6</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>72</v>
+      </c>
+      <c r="C34" t="n">
+        <v>60</v>
+      </c>
+      <c r="D34" t="n">
+        <v>84</v>
+      </c>
+      <c r="E34" t="n">
+        <v>90</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Calcule 45 / 9</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>¿Quién llego a América en 3 carabelas en 1492?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cristobal Colón</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Hernán Cortes</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Fray Bartolome de las Casas</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Pedro de Alvarado</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Calcule 657-498</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>159</v>
+      </c>
+      <c r="C37" t="n">
+        <v>175</v>
+      </c>
+      <c r="D37" t="n">
+        <v>156</v>
+      </c>
+      <c r="E37" t="n">
+        <v>158</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Calcule 78*92</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>7176</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7177</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7137</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7178</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Calcule 68/7</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Calcule (567+987)</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1554</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1555</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1568</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Calcule 4*5 + (136/8) -6+(27-9)*2</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>75</v>
+      </c>
+      <c r="C41" t="n">
+        <v>72</v>
+      </c>
+      <c r="D41" t="n">
+        <v>81</v>
+      </c>
+      <c r="E41" t="n">
+        <v>82</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Palabra que nombra a una persona o cosa</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Sustantivo</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Adjetivo</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Artículo</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Pronombre</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Palabra que sirve para dar características de un sustantitvo</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Adjetivo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Artículo</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Adverbio</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Pronombre</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sistema de nuestro cuerpo que se encarga de descomponer los nutrentes para que el cuerpo los absorba</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sistema digestivo</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sistema reproductor</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sistema nervioso</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Sistema endocrino</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Animales con escamas y que nacen por huevos</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Insectos</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Mamiferos</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Animales que nacen por medio de huevos</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Oviparos</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Viviparos</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Anfibios</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Mamiferos</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>De los siguientes animales ¿Cuál es un anfibio?</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Rana</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Tortuga</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Pez espada</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Delfin</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Animal mamífero que puede volar</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Murcielago</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ardilla voladora</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Guacamaya</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Loro</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Parte de la hoja que le da soporte y estructura</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Tallo</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Petalo</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Hoja</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Flor</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>De las siguientes opciones ¿Cuál no es un continente?</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sudáfrica</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>América</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Europa</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>¿Cuántos minutos tiene una hora?</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>60 min</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 min</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 45 min</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>120 min</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Planeta más cercano al sol</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mercuario</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Marte</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Saturno</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Indique cuál de las siguientes opciones no es un estado de la materia</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>caliente</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>gaseoso</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>líquido</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>solido</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>¿Cuántas sílabas tiene la palabra abecedario?</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Palabras que tiene un mismo significado son…</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>sinónimas</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>antónimas</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>homofonas</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>homografas</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>¿De cuánto es la suma de los ángulos de un triángulo?</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>180</v>
+      </c>
+      <c r="C56" t="n">
+        <v>150</v>
+      </c>
+      <c r="D56" t="n">
+        <v>90</v>
+      </c>
+      <c r="E56" t="n">
+        <v>360</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Un número primo es…</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>divisible solo por 1 y el mismo</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>divisible por todos los números menos el mismo</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>divisible por los números pares</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>divisible solamente por 1</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Calcule el porcentaje de 45/56</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Proceso en el qué las plantas energía de la luz solar:</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>fotosíntesis</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>crecimieto</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>alimento</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>reproduccion</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Escribe el número 1000 en numeración romana</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> M</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Escribe el número 326 en numeración romana</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CCCXXVI</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CCCXVI</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CCCXXV</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>CCCXXIV</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Encuentre x en la ecuación: 7x+8 = 35-2x</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Factorice 5a^3 + 10a + 20</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>5(a^3 + 2a + 4)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>a^3 + 2a + 4</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5(a^2 + 2a + 4)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>5(a^3 + 2a)</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Resuelva le ecuación x^2 + 5x + 6 = 0</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>x = -3 y x = -2</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>x = -3 y x = -4</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>x = 5 y x = 2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>x = 9 y x = -2</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Factorice 3x^2+7x-6</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>(3x-2)(x+3)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>(x+3)^2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>(x-2)(x+3)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>(x+4)(5x+3)</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>La capital de Croacia</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Zagreb</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Kiev</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Hanói</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Liubliana</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>¿Quién escribió Fuenteovejuna?</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Lope de Vega</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Miguel de Cervantes</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Luis de góngora</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Garcilaso de la Vega</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Capital de Holanda</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Ámsterdam</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Moscu</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Resuelva la ecuación 7x^2 -13x+6 = 0</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>x = 1 y x = 6/7</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>x = -1 y x = 4/3</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>x = 1 y x = 8/7</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>x = 5 y x = -2</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Resuelva la ecuación x^2 -10x +9 = 0</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>x = 9 y x = 1</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>x = 8 y x = 3</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>x = 5 y x = 1/2</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>x = 9 y x = 2</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Encontrar la hipotenusa de un triángulo con cateto adyacente de 45 cm y cateto opuesto de 60 cm</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>75 cm</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>74 cm</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>71.36 cm</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>72.81 cm</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Movimiento cultural nacido en Europa durante el siglo XV. Uno de sus máximos exponentes fue Leonardo Da Vinci</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Renaciminto</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Barroco</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Naturalismo</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Siglo de Oro</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>¿Cómo se le llama a la herencia cuando no hay genes dominantes?</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Codominancia</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Dominancia</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Redominancia</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Heterocigoto</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Un vector tiene...</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Magnitud y dirección</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Magnitud</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Dirección</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Magnitud y signo</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Encuentre el modificador directo en la oración: La camisa con los botones desarreglados no debe usarse aquí.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>camisa</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>con</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>los</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>¿Quién es el padre de la genética?</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Gregor Mendel</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Elon Musk</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Nicola Tesla</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Galileo Galilei</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>¿Quién propuso la teoría del Big Bang?</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>George Lemaitre</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Albert Einstein</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Edwin Hubble</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Nicola Tesla</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>¿Quién pintó la monalisa?</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Leonardo da Vinci</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Leonardo DiCaprio</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Leonardo Bonucci</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Leonard Cohen</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>En qué año se dio el descubrimiento de América</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1492</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1506</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1943</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1493</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sistema de lectura y escritura para personas ciegas</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Kaqchiquel</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Hebreo</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Latín</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Obra teatral de William Shakespeare que relata la historia de dos enamorados</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Romeo y Julieta</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Macbeth</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Otelo</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Hamlet</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>¿Cuál de estos no es un tipo de sabor primario?</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>picante</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>umami</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>salado</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>¿Quién es el autor del Quijote?</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Miguel de Cervantes</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Luis Miguel</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Miguel Ángel Asturias</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Miguel Ángel</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Los humanos son seres…</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>omnívoros</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>libres</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>herbívoros</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>carnívoros</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>¿En qué parte del cuerpo se produce la insulina?</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Páncreas</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Intestino delgado</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Hígado</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>cerebro</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Primer metal empleado por el hombre</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cobre</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>hierro</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>plata</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>oro</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Valor de pi con 5 decimales</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>3.14159</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.14155</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3.14157</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.14158</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>¿En qué año se dio la Revolución Francesa?</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1789</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1788</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1726</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1754</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>¿En qué año inicia la Revolución Rusa?</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1917</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1918</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1914</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Encuentre los ceros de la funcion x^3 - 7x^2 +10x (Escribalos asi: 4, 5, 6)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0, 5, 2</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0,4,3</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.5,1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0,5,3</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Teoria que dice que el Universo surgio debido a la explosion de una concentracion de energia</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Big Bang</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Big Crunch</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Big Beat</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Big Boom</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Resuelva la desigualdad: (x-5)(x-4) &lt;= 6 (Escriba la solucion en intervalos de la siguiente manera: [4,5] o (infinito,infinito) o (infinito,8))</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[2,7]</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>[2,8]</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>[2,9]</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[2,6]</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>¿Cual es el resultado de log2(64)?</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Proceso que resulta en cambios en el material genetico de los organismos:</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Evolucion</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Fotosintesis</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Reproduccion</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Alimentacion</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Tipo de evolucion en el que una especie se separa en 2</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Divergente</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Coevolucion</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Convergente</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Adaptativa</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Tipo de evolucion en el el que varias especies se afectan mutuamente ocasionando la evolucion del otro:</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Coevolucion</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Divergente</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Convergente</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Adaptativa</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Relacion entre especies la cual provee beneficios para ambas especies</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mutualismo</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Parasitismo</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Comensalismo</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Depredacion</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Relacion entre especies en la cual un organismo se beneficia a expensas de otro</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Parasitismo</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Comensalismo</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Depredacion</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Mutualismo</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Resuelva la ecuacion logaritmica: (log2(x))^2 - (log2(x))^3 = -2 (Son 2 respuestas, escriblas asi: x = 8, x = 1</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>x = 4, x = 2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>x=4, x=3</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>x=4, x=1</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>x=4, x=5</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Resuela la ecuacion exponencial: 9 * 9^x-1 - 2 * 3^x +1 = 0 (Puede que solo hayan 1 o 2 respuestas, si hay 2 escribalas asi: x = 9, x = 10, si hay una solamente escriba x = 5</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>x = 0</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>x=3</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>x=1</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>x=2</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Funcion polinomial de grado 4, ceros en 3+2i; 2 multiplicadad 2. Para por el punto (1,2) (Hay fracciones en la respuesta, escribalas asi: 1/9x^2 + 5x</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1/4x^4 - 5/2x^3 + 41/4x^2 -19x + 13</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1/3x^4 - 5/2x^3 + 41/4x^2 -19x + 13</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1/2x^4 - 5/2x^3 + 41/4x^2 -19x + 13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1/5x^4 - 5/2x^3 + 41/4x^2 -19x + 13</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Encuentre las 3 soluciones de x^4 - 9x^3 + 22x^2 - 32. Use divison sintetica</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>x = -1, x = 2, x = 4</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>x = -1, x = 2, x = 3</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>x = -1, x = 2, x = 5</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>x = -1, x = 2, x = 6</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Encuentre las 3  soluciones de (x^3 - x)/(x^2 - 4)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>x = -1, x = 0, x = 1</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>x = -1, x = 0, x = 2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>x = -2, x = 0, x = 1</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>x = -1, x = 4, x = 1</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
         <v>4</v>
       </c>
     </row>
